--- a/Documentation/PR/description/review.xlsx
+++ b/Documentation/PR/description/review.xlsx
@@ -24,6 +24,26 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
+    <t>I do not think that this information is useful earlier. We give it as part of the evaluation. Space constrictions prevent to tell this story twice.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wontfix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wontfix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector graphic of the visualization only? The size is okay, though. There is no text to read here!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>While I think the requirements clarification trajectory has merit for detecting requirements issues and, as indicated by the authors, the project managers suggested that it is useful to add the visualization of the social network, a more formal evaluation of the tool (or design of such evaluation) is basically missing, although a brief description of planned further evaluation is included at the end of the paper.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -52,38 +72,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Well, I thought it is a tool demo and wanted to show the tool. This comment opens a new line of thought.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adding this information would require to write a journal or full paper. I think it is sufficiently highlighted in the outlook. We might need to remove it from the Introduction?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>and the graphical presentation of the piecharts associated with each node of the social network is missing ) are compensated to some extent by information provided in the demo.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>I will try to rearrange that.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mention earlier.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>I think it is part of Figure 4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Highlight it even more</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>However, this paper on a visualization tool uses rather poorly visual means (snapshots) to present the tool (Figures 2 and 3, in particular, are too small)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Well, I thought it is a tool demo and wanted to show the tool. This comment opens a new line of thought.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vector graphic of the visualization only?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>and the description of the visualization of social networks is limited.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -128,10 +144,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Adding this information would require to write a journal or full paper.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>We thought about that and it is on our todolist. Not feasible for the cr version, though</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -145,14 +157,6 @@
   </si>
   <si>
     <t>ntd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell this out?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>highlight in future work?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -182,10 +186,6 @@
   </si>
   <si>
     <t>Easy. We can use jazz.net Rest API and the XML used by Atlassian Jira's RSS Feed. Others should be doable in very limited time.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add a footnote?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -624,7 +624,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -636,19 +636,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="91" hidden="1">
@@ -665,7 +665,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26" hidden="1">
@@ -682,10 +682,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="130">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="130" hidden="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -696,10 +696,10 @@
         <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="65" hidden="1">
@@ -716,7 +716,7 @@
         <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="52" hidden="1">
@@ -733,7 +733,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="169" hidden="1">
@@ -747,10 +747,10 @@
         <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26" hidden="1">
@@ -761,13 +761,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="39">
@@ -778,16 +778,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="130">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="130" hidden="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -795,16 +795,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="195" hidden="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -812,13 +812,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="91" hidden="1">
@@ -829,13 +829,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="104" hidden="1">
@@ -846,13 +846,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="286" hidden="1">
@@ -863,16 +863,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="65">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="156">
       <c r="A15">
         <v>14</v>
       </c>
@@ -880,13 +880,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="65">
@@ -897,16 +897,16 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="130">
       <c r="A17">
         <v>16</v>
       </c>
@@ -914,13 +914,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="39" hidden="1">
@@ -931,13 +931,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="169" hidden="1">
@@ -948,13 +948,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5">
